--- a/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/list.xlsx
+++ b/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\20. 弹性网卡控制台国际化翻译校对\3. 客户确认版-更新至github\弹性网卡确认-GTCOM-haopeng1108-需更新至github\elasticNetworkMixinsXlsx_haopeng1106-R\elasticNetworkMixinsXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -425,18 +425,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'网卡ID'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>list_i18nKey_18</t>
     </r>
   </si>
@@ -545,18 +533,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>The Elastic Network Interface List page only supports secondary network interface display and operation. Please access the Virtual Machine Details page for operations related to the primary network interface.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Create</t>
     </r>
   </si>
@@ -569,78 +545,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Please enter network interface ID for search'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Please enter network name for search'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Network Interface ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Network Interface ID/Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Network Interface Attribute</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Virtual Private Cloud</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Subnet</t>
     </r>
   </si>
@@ -653,42 +557,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Association Type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Associate Resource</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delete on Instance Termination</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Private IP</t>
     </r>
   </si>
@@ -701,87 +569,112 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Action</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>No Elastic Network Interface Data</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Network Interface ID'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Network Card Interface Name'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Begin to obtain elastic network interface list'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Elastic network interface binding task successfully submitted! Please refresh the page later'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Elastic network interface unbinding task successfully submitted! Please refresh the page later'</t>
-    </r>
+    <t>VPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENI ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENI Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENI ID/Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attachment Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attached Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading Elastic Network Interface List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search by Elastic Network Interface IDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search by Elastic Network Interface Names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Elastic Network Interface attaching task has been successfully submitted! Refresh this page later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Elastic Network Interface detaching task has been successfully submitted! Refresh this page later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only Secondary Network Interface information and actions are supported in this page. Enter the Virtual Machine detail page for Primary Network Interface actions.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deletion on Instance Termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ENI Role</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,6 +684,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -817,9 +726,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,14 +1075,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="3" width="43" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1181,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -1192,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1203,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,8 +1126,8 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
+      <c r="C4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,8 +1137,8 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
+      <c r="C5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1235,7 +1148,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1246,8 +1159,8 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
+      <c r="C7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1257,8 +1170,8 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
+      <c r="C8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1268,8 +1181,8 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
+      <c r="C9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,7 +1193,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1290,8 +1203,8 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
+      <c r="C11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,8 +1214,8 @@
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
+      <c r="C12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1312,8 +1225,8 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>54</v>
+      <c r="C13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1324,7 +1237,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,8 +1247,8 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
+      <c r="C15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1346,69 +1259,70 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
+      <c r="C18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
+      <c r="C19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B21" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B16 A18:B21 A17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>